--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ptgs2-Cav1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ptgs2-Cav1.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.8976106666666667</v>
+        <v>0.06338433333333333</v>
       </c>
       <c r="H2">
-        <v>2.692832</v>
+        <v>0.190153</v>
       </c>
       <c r="I2">
-        <v>0.02124022359297476</v>
+        <v>0.001319770164420016</v>
       </c>
       <c r="J2">
-        <v>0.02124022359297476</v>
+        <v>0.001319770164420016</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>833.4308676666666</v>
+        <v>788.1599833333333</v>
       </c>
       <c r="N2">
-        <v>2500.292603</v>
+        <v>2364.47995</v>
       </c>
       <c r="O2">
-        <v>0.8518935545813505</v>
+        <v>0.8397951873720987</v>
       </c>
       <c r="P2">
-        <v>0.8518935545813505</v>
+        <v>0.8397951873720988</v>
       </c>
       <c r="Q2">
-        <v>748.096436746855</v>
+        <v>49.95699510359444</v>
       </c>
       <c r="R2">
-        <v>6732.867930721696</v>
+        <v>449.61295593235</v>
       </c>
       <c r="S2">
-        <v>0.01809440957672193</v>
+        <v>0.001108336632517213</v>
       </c>
       <c r="T2">
-        <v>0.01809440957672193</v>
+        <v>0.001108336632517213</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.8976106666666667</v>
+        <v>0.06338433333333333</v>
       </c>
       <c r="H3">
-        <v>2.692832</v>
+        <v>0.190153</v>
       </c>
       <c r="I3">
-        <v>0.02124022359297476</v>
+        <v>0.001319770164420016</v>
       </c>
       <c r="J3">
-        <v>0.02124022359297476</v>
+        <v>0.001319770164420016</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>53.218373</v>
       </c>
       <c r="O3">
-        <v>0.01813243333584592</v>
+        <v>0.01890163353898316</v>
       </c>
       <c r="P3">
-        <v>0.01813243333584592</v>
+        <v>0.01890163353898317</v>
       </c>
       <c r="Q3">
-        <v>15.92312642248178</v>
+        <v>1.124403697896555</v>
       </c>
       <c r="R3">
-        <v>143.308137802336</v>
+        <v>10.119633281069</v>
       </c>
       <c r="S3">
-        <v>0.0003851369383380766</v>
+        <v>2.49458120035507E-05</v>
       </c>
       <c r="T3">
-        <v>0.0003851369383380766</v>
+        <v>2.49458120035507E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.8976106666666667</v>
+        <v>0.06338433333333333</v>
       </c>
       <c r="H4">
-        <v>2.692832</v>
+        <v>0.190153</v>
       </c>
       <c r="I4">
-        <v>0.02124022359297476</v>
+        <v>0.001319770164420016</v>
       </c>
       <c r="J4">
-        <v>0.02124022359297476</v>
+        <v>0.001319770164420016</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>125.812397</v>
+        <v>131.4690986666667</v>
       </c>
       <c r="N4">
-        <v>377.437191</v>
+        <v>394.407296</v>
       </c>
       <c r="O4">
-        <v>0.1285994726722751</v>
+        <v>0.1400821136357036</v>
       </c>
       <c r="P4">
-        <v>0.1285994726722751</v>
+        <v>0.1400821136357036</v>
       </c>
       <c r="Q4">
-        <v>112.9305495461013</v>
+        <v>8.333081172920888</v>
       </c>
       <c r="R4">
-        <v>1016.374945914912</v>
+        <v>74.99773055628799</v>
       </c>
       <c r="S4">
-        <v>0.002731481553497771</v>
+        <v>0.0001848761941452959</v>
       </c>
       <c r="T4">
-        <v>0.002731481553497771</v>
+        <v>0.0001848761941452959</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.8976106666666667</v>
+        <v>0.06338433333333333</v>
       </c>
       <c r="H5">
-        <v>2.692832</v>
+        <v>0.190153</v>
       </c>
       <c r="I5">
-        <v>0.02124022359297476</v>
+        <v>0.001319770164420016</v>
       </c>
       <c r="J5">
-        <v>0.02124022359297476</v>
+        <v>0.001319770164420016</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.344749666666667</v>
+        <v>1.145987666666667</v>
       </c>
       <c r="N5">
-        <v>4.034249</v>
+        <v>3.437963</v>
       </c>
       <c r="O5">
-        <v>0.001374539410528448</v>
+        <v>0.001221065453214498</v>
       </c>
       <c r="P5">
-        <v>0.001374539410528448</v>
+        <v>0.001221065453214498</v>
       </c>
       <c r="Q5">
-        <v>1.207061644796444</v>
+        <v>0.07263766425988889</v>
       </c>
       <c r="R5">
-        <v>10.863554803168</v>
+        <v>0.653738978339</v>
       </c>
       <c r="S5">
-        <v>2.919552441697997E-05</v>
+        <v>1.611525753956498E-06</v>
       </c>
       <c r="T5">
-        <v>2.919552441697996E-05</v>
+        <v>1.611525753956499E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>61.824698</v>
       </c>
       <c r="I6">
-        <v>0.4876540419484541</v>
+        <v>0.4290986302854955</v>
       </c>
       <c r="J6">
-        <v>0.4876540419484541</v>
+        <v>0.4290986302854955</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>833.4308676666666</v>
+        <v>788.1599833333333</v>
       </c>
       <c r="N6">
-        <v>2500.292603</v>
+        <v>2364.47995</v>
       </c>
       <c r="O6">
-        <v>0.8518935545813505</v>
+        <v>0.8397951873720987</v>
       </c>
       <c r="P6">
-        <v>0.8518935545813505</v>
+        <v>0.8397951873720988</v>
       </c>
       <c r="Q6">
-        <v>17175.53723245654</v>
+        <v>16242.58431508945</v>
       </c>
       <c r="R6">
-        <v>154579.8350921089</v>
+        <v>146183.2588358051</v>
       </c>
       <c r="S6">
-        <v>0.4154293352014315</v>
+        <v>0.3603549646217186</v>
       </c>
       <c r="T6">
-        <v>0.4154293352014315</v>
+        <v>0.3603549646217186</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>61.824698</v>
       </c>
       <c r="I7">
-        <v>0.4876540419484541</v>
+        <v>0.4290986302854955</v>
       </c>
       <c r="J7">
-        <v>0.4876540419484541</v>
+        <v>0.4290986302854955</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>53.218373</v>
       </c>
       <c r="O7">
-        <v>0.01813243333584592</v>
+        <v>0.01890163353898316</v>
       </c>
       <c r="P7">
-        <v>0.01813243333584592</v>
+        <v>0.01890163353898317</v>
       </c>
       <c r="Q7">
         <v>365.5788709751504</v>
@@ -883,10 +883,10 @@
         <v>3290.209838776354</v>
       </c>
       <c r="S7">
-        <v>0.008842354406586154</v>
+        <v>0.008110665061736059</v>
       </c>
       <c r="T7">
-        <v>0.008842354406586154</v>
+        <v>0.00811066506173606</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>61.824698</v>
       </c>
       <c r="I8">
-        <v>0.4876540419484541</v>
+        <v>0.4290986302854955</v>
       </c>
       <c r="J8">
-        <v>0.4876540419484541</v>
+        <v>0.4290986302854955</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>125.812397</v>
+        <v>131.4690986666667</v>
       </c>
       <c r="N8">
-        <v>377.437191</v>
+        <v>394.407296</v>
       </c>
       <c r="O8">
-        <v>0.1285994726722751</v>
+        <v>0.1400821136357036</v>
       </c>
       <c r="P8">
-        <v>0.1285994726722751</v>
+        <v>0.1400821136357036</v>
       </c>
       <c r="Q8">
-        <v>2592.771149727035</v>
+        <v>2709.345773799623</v>
       </c>
       <c r="R8">
-        <v>23334.94034754332</v>
+        <v>24384.11196419661</v>
       </c>
       <c r="S8">
-        <v>0.06271205264107473</v>
+        <v>0.06010904308857755</v>
       </c>
       <c r="T8">
-        <v>0.06271205264107473</v>
+        <v>0.06010904308857755</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>61.824698</v>
       </c>
       <c r="I9">
-        <v>0.4876540419484541</v>
+        <v>0.4290986302854955</v>
       </c>
       <c r="J9">
-        <v>0.4876540419484541</v>
+        <v>0.4290986302854955</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.344749666666667</v>
+        <v>1.145987666666667</v>
       </c>
       <c r="N9">
-        <v>4.034249</v>
+        <v>3.437963</v>
       </c>
       <c r="O9">
-        <v>0.001374539410528448</v>
+        <v>0.001221065453214498</v>
       </c>
       <c r="P9">
-        <v>0.001374539410528448</v>
+        <v>0.001221065453214498</v>
       </c>
       <c r="Q9">
-        <v>27.71291400908911</v>
+        <v>23.61678046779711</v>
       </c>
       <c r="R9">
-        <v>249.416226081802</v>
+        <v>212.551024210174</v>
       </c>
       <c r="S9">
-        <v>0.0006702996993616432</v>
+        <v>0.0005239575134632786</v>
       </c>
       <c r="T9">
-        <v>0.0006702996993616431</v>
+        <v>0.0005239575134632788</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,22 +1027,22 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.180912</v>
+        <v>0.1307036666666667</v>
       </c>
       <c r="H10">
-        <v>0.542736</v>
+        <v>0.392111</v>
       </c>
       <c r="I10">
-        <v>0.004280933230129748</v>
+        <v>0.002721473755033562</v>
       </c>
       <c r="J10">
-        <v>0.004280933230129748</v>
+        <v>0.002721473755033562</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>833.4308676666666</v>
+        <v>788.1599833333333</v>
       </c>
       <c r="N10">
-        <v>2500.292603</v>
+        <v>2364.47995</v>
       </c>
       <c r="O10">
-        <v>0.8518935545813505</v>
+        <v>0.8397951873720987</v>
       </c>
       <c r="P10">
-        <v>0.8518935545813505</v>
+        <v>0.8397951873720988</v>
       </c>
       <c r="Q10">
-        <v>150.777645131312</v>
+        <v>103.0153997416055</v>
       </c>
       <c r="R10">
-        <v>1356.998806181808</v>
+        <v>927.1385976744499</v>
       </c>
       <c r="S10">
-        <v>0.003646899426340654</v>
+        <v>0.002285480562036659</v>
       </c>
       <c r="T10">
-        <v>0.003646899426340653</v>
+        <v>0.002285480562036659</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,22 +1089,22 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.180912</v>
+        <v>0.1307036666666667</v>
       </c>
       <c r="H11">
-        <v>0.542736</v>
+        <v>0.392111</v>
       </c>
       <c r="I11">
-        <v>0.004280933230129748</v>
+        <v>0.002721473755033562</v>
       </c>
       <c r="J11">
-        <v>0.004280933230129748</v>
+        <v>0.002721473755033562</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>53.218373</v>
       </c>
       <c r="O11">
-        <v>0.01813243333584592</v>
+        <v>0.01890163353898316</v>
       </c>
       <c r="P11">
-        <v>0.01813243333584592</v>
+        <v>0.01890163353898317</v>
       </c>
       <c r="Q11">
-        <v>3.209280765392</v>
+        <v>2.318612161711445</v>
       </c>
       <c r="R11">
-        <v>28.883526888528</v>
+        <v>20.867509455403</v>
       </c>
       <c r="S11">
-        <v>7.762373641053521E-05</v>
+        <v>5.144029960360482E-05</v>
       </c>
       <c r="T11">
-        <v>7.762373641053518E-05</v>
+        <v>5.144029960360483E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,22 +1151,22 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.180912</v>
+        <v>0.1307036666666667</v>
       </c>
       <c r="H12">
-        <v>0.542736</v>
+        <v>0.392111</v>
       </c>
       <c r="I12">
-        <v>0.004280933230129748</v>
+        <v>0.002721473755033562</v>
       </c>
       <c r="J12">
-        <v>0.004280933230129748</v>
+        <v>0.002721473755033562</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>125.812397</v>
+        <v>131.4690986666667</v>
       </c>
       <c r="N12">
-        <v>377.437191</v>
+        <v>394.407296</v>
       </c>
       <c r="O12">
-        <v>0.1285994726722751</v>
+        <v>0.1400821136357036</v>
       </c>
       <c r="P12">
-        <v>0.1285994726722751</v>
+        <v>0.1400821136357036</v>
       </c>
       <c r="Q12">
-        <v>22.760972366064</v>
+        <v>17.18349324909511</v>
       </c>
       <c r="R12">
-        <v>204.848751294576</v>
+        <v>154.651439241856</v>
       </c>
       <c r="S12">
-        <v>0.000550525755939905</v>
+        <v>0.0003812297958091964</v>
       </c>
       <c r="T12">
-        <v>0.0005505257559399049</v>
+        <v>0.0003812297958091964</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,22 +1213,22 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.180912</v>
+        <v>0.1307036666666667</v>
       </c>
       <c r="H13">
-        <v>0.542736</v>
+        <v>0.392111</v>
       </c>
       <c r="I13">
-        <v>0.004280933230129748</v>
+        <v>0.002721473755033562</v>
       </c>
       <c r="J13">
-        <v>0.004280933230129748</v>
+        <v>0.002721473755033562</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.344749666666667</v>
+        <v>1.145987666666667</v>
       </c>
       <c r="N13">
-        <v>4.034249</v>
+        <v>3.437963</v>
       </c>
       <c r="O13">
-        <v>0.001374539410528448</v>
+        <v>0.001221065453214498</v>
       </c>
       <c r="P13">
-        <v>0.001374539410528448</v>
+        <v>0.001221065453214498</v>
       </c>
       <c r="Q13">
-        <v>0.243281351696</v>
+        <v>0.1497847899881111</v>
       </c>
       <c r="R13">
-        <v>2.189532165264</v>
+        <v>1.348063109893</v>
       </c>
       <c r="S13">
-        <v>5.88431143865419E-06</v>
+        <v>3.323097584101416E-06</v>
       </c>
       <c r="T13">
-        <v>5.884311438654188E-06</v>
+        <v>3.323097584101417E-06</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>20.573189</v>
+        <v>27.224476</v>
       </c>
       <c r="H14">
-        <v>61.719567</v>
+        <v>81.673428</v>
       </c>
       <c r="I14">
-        <v>0.4868248012284415</v>
+        <v>0.566860125795051</v>
       </c>
       <c r="J14">
-        <v>0.4868248012284414</v>
+        <v>0.566860125795051</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>833.4308676666666</v>
+        <v>788.1599833333333</v>
       </c>
       <c r="N14">
-        <v>2500.292603</v>
+        <v>2364.47995</v>
       </c>
       <c r="O14">
-        <v>0.8518935545813505</v>
+        <v>0.8397951873720987</v>
       </c>
       <c r="P14">
-        <v>0.8518935545813505</v>
+        <v>0.8397951873720988</v>
       </c>
       <c r="Q14">
-        <v>17146.33075894032</v>
+        <v>21457.24255041873</v>
       </c>
       <c r="R14">
-        <v>154316.9768304629</v>
+        <v>193115.1829537686</v>
       </c>
       <c r="S14">
-        <v>0.4147229103768564</v>
+        <v>0.4760464055558263</v>
       </c>
       <c r="T14">
-        <v>0.4147229103768564</v>
+        <v>0.4760464055558263</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>20.573189</v>
+        <v>27.224476</v>
       </c>
       <c r="H15">
-        <v>61.719567</v>
+        <v>81.673428</v>
       </c>
       <c r="I15">
-        <v>0.4868248012284415</v>
+        <v>0.566860125795051</v>
       </c>
       <c r="J15">
-        <v>0.4868248012284414</v>
+        <v>0.566860125795051</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>53.218373</v>
       </c>
       <c r="O15">
-        <v>0.01813243333584592</v>
+        <v>0.01890163353898316</v>
       </c>
       <c r="P15">
-        <v>0.01813243333584592</v>
+        <v>0.01890163353898317</v>
       </c>
       <c r="Q15">
-        <v>364.9572153338323</v>
+        <v>482.9474394991827</v>
       </c>
       <c r="R15">
-        <v>3284.614938004491</v>
+        <v>4346.526955492644</v>
       </c>
       <c r="S15">
-        <v>0.008827318254511156</v>
+        <v>0.01071458236563995</v>
       </c>
       <c r="T15">
-        <v>0.008827318254511154</v>
+        <v>0.01071458236563995</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>20.573189</v>
+        <v>27.224476</v>
       </c>
       <c r="H16">
-        <v>61.719567</v>
+        <v>81.673428</v>
       </c>
       <c r="I16">
-        <v>0.4868248012284415</v>
+        <v>0.566860125795051</v>
       </c>
       <c r="J16">
-        <v>0.4868248012284414</v>
+        <v>0.566860125795051</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>125.812397</v>
+        <v>131.4690986666667</v>
       </c>
       <c r="N16">
-        <v>377.437191</v>
+        <v>394.407296</v>
       </c>
       <c r="O16">
-        <v>0.1285994726722751</v>
+        <v>0.1400821136357036</v>
       </c>
       <c r="P16">
-        <v>0.1285994726722751</v>
+        <v>0.1400821136357036</v>
       </c>
       <c r="Q16">
-        <v>2588.362222024033</v>
+        <v>3579.177321392298</v>
       </c>
       <c r="R16">
-        <v>23295.25999821629</v>
+        <v>32212.59589253069</v>
       </c>
       <c r="S16">
-        <v>0.06260541272176272</v>
+        <v>0.07940696455717157</v>
       </c>
       <c r="T16">
-        <v>0.06260541272176272</v>
+        <v>0.07940696455717157</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>20.573189</v>
+        <v>27.224476</v>
       </c>
       <c r="H17">
-        <v>61.719567</v>
+        <v>81.673428</v>
       </c>
       <c r="I17">
-        <v>0.4868248012284415</v>
+        <v>0.566860125795051</v>
       </c>
       <c r="J17">
-        <v>0.4868248012284414</v>
+        <v>0.566860125795051</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.344749666666667</v>
+        <v>1.145987666666667</v>
       </c>
       <c r="N17">
-        <v>4.034249</v>
+        <v>3.437963</v>
       </c>
       <c r="O17">
-        <v>0.001374539410528448</v>
+        <v>0.001221065453214498</v>
       </c>
       <c r="P17">
-        <v>0.001374539410528448</v>
+        <v>0.001221065453214498</v>
       </c>
       <c r="Q17">
-        <v>27.66578905002033</v>
+        <v>31.19891372746266</v>
       </c>
       <c r="R17">
-        <v>248.992101450183</v>
+        <v>280.790223547164</v>
       </c>
       <c r="S17">
-        <v>0.0006691598753111709</v>
+        <v>0.000692173316413161</v>
       </c>
       <c r="T17">
-        <v>0.0006691598753111707</v>
+        <v>0.0006921733164131611</v>
       </c>
     </row>
   </sheetData>
